--- a/biology/Zoologie/Copadichromis_azureus/Copadichromis_azureus.xlsx
+++ b/biology/Zoologie/Copadichromis_azureus/Copadichromis_azureus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copadichromis azureus est une espèce de poisson d'eau douce de la famille des cichlidae endémique du lac Malawi en Afrique. Ce cichlidé fait partie des communément appelé Haplo.
 </t>
@@ -511,7 +523,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est incubatrice buccale maternelle, les femelles gardent les œufs, larves et tout jeunes alevins environ 3 semaines, protégés dans leur gueule (sans manger ou en filtrant très légèrement les micro-détritus). Les mâles peuvent se montrer très insistants dès les premières maturités sexuelles des femelles, il est préférable de maintenir cette espèce en groupes de plusieurs individus (au moins en « trio » : 1 mâle pour 2 femelles), de manière à diviser l'agressivité d'un mâle dominant sur plusieurs individus. 
 </t>
@@ -542,7 +556,9 @@
           <t>Croisement, hybridation, sélection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est impératif de maintenir cette espèce et le genre Copadichromis seul ou en compagnie d'autres espèces, d'autres genre, mais de provenance similaire (lac Malawi), afin d'éviter toute facilité de croisement. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs variées ou albinos, dues à la sélection, à l'hybridation ou autres procédés.
 </t>
@@ -573,7 +589,9 @@
           <t>Bibliothèque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guide to Malawi Cichlids, par Ad Konings; Aqualog Verlag GmbH (janvier 1997);  (ISBN 3-9805605-3-8);  (ISBN 978-3-9805605-3-5)
 Konings' Book of Cichlids and All the Other Fishes of Lake Malawi, par Konings; Publications (juillet 1991);  (ISBN 0-86622-527-7);  (ISBN 978-0-86622-527-4)</t>
